--- a/config_all.xlsx
+++ b/config_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8200" firstSheet="9" activeTab="11"/>
+    <workbookView windowWidth="20745" windowHeight="9675" firstSheet="9" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="17" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1011">
   <si>
     <t>唤醒资源</t>
   </si>
@@ -1914,6 +1914,9 @@
   </si>
   <si>
     <t>in_11-25_13-55-58-738.pcm</t>
+  </si>
+  <si>
+    <t>in_12-24_13-43-03-268.pcm</t>
   </si>
   <si>
     <t>ht:污秽词&amp;近似词</t>
@@ -3731,12 +3734,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4091,14 +4092,14 @@
       <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5454545454545" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="19.5416666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.4545454545455" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5454545454545" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5454545454545" style="4" customWidth="1"/>
-    <col min="5" max="6" width="19.5454545454545" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="19.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="19.5416666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.4583333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5416666666667" style="4" customWidth="1"/>
+    <col min="5" max="6" width="19.5416666666667" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="19.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4138,13 +4139,13 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -4400,11 +4401,11 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 C1:C5 E1:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 E1:E5"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E17 E18:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1048576">
       <formula1>"1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4422,7 +4423,7 @@
       <selection activeCell="A21" sqref="A21:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -4449,7 +4450,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4469,7 +4470,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4489,7 +4490,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4509,7 +4510,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4529,7 +4530,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4549,7 +4550,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4569,7 +4570,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4589,7 +4590,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4609,7 +4610,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4629,7 +4630,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4649,7 +4650,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4669,7 +4670,7 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -4689,7 +4690,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4709,7 +4710,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4729,7 +4730,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4749,7 +4750,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -4769,7 +4770,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4789,7 +4790,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4809,7 +4810,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4829,7 +4830,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4846,10 +4847,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B22" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -4866,10 +4867,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B23" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -4886,10 +4887,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B24" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -4906,10 +4907,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4926,10 +4927,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B26" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -4946,10 +4947,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B27" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -4966,10 +4967,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B28" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -4986,10 +4987,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B29" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -5006,10 +5007,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B30" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -5026,10 +5027,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B31" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -5046,10 +5047,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B32" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -5066,10 +5067,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B33" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5086,10 +5087,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B34" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5106,10 +5107,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B35" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5126,10 +5127,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B36" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5146,10 +5147,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B37" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5166,10 +5167,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B38" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5186,10 +5187,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B39" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5206,10 +5207,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B40" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5226,10 +5227,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B41" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5246,10 +5247,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B42" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5266,10 +5267,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B43" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -5286,10 +5287,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B44" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -5309,7 +5310,7 @@
         <v>254</v>
       </c>
       <c r="B45" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -5329,7 +5330,7 @@
         <v>254</v>
       </c>
       <c r="B46" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
@@ -5349,7 +5350,7 @@
         <v>254</v>
       </c>
       <c r="B47" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
@@ -5369,7 +5370,7 @@
         <v>254</v>
       </c>
       <c r="B48" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
@@ -5389,7 +5390,7 @@
         <v>254</v>
       </c>
       <c r="B49" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
@@ -5409,7 +5410,7 @@
         <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5429,7 +5430,7 @@
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5449,7 +5450,7 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5469,7 +5470,7 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5489,7 +5490,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5509,7 +5510,7 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5529,7 +5530,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5549,7 +5550,7 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5569,7 +5570,7 @@
         <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5589,7 +5590,7 @@
         <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5609,7 +5610,7 @@
         <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5629,7 +5630,7 @@
         <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5649,7 +5650,7 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5669,7 +5670,7 @@
         <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5689,7 +5690,7 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5709,7 +5710,7 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5729,7 +5730,7 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5749,7 +5750,7 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5769,7 +5770,7 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5789,7 +5790,7 @@
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5809,7 +5810,7 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5829,7 +5830,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -5849,7 +5850,7 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5869,7 +5870,7 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5889,7 +5890,7 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -5909,7 +5910,7 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5929,7 +5930,7 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5949,7 +5950,7 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5969,7 +5970,7 @@
         <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -5989,7 +5990,7 @@
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6019,7 +6020,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -6046,7 +6047,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -6066,7 +6067,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6086,7 +6087,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6106,7 +6107,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6126,7 +6127,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6146,7 +6147,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6166,7 +6167,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6186,7 +6187,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6206,7 +6207,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6226,7 +6227,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -6246,7 +6247,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -6266,7 +6267,7 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -6286,7 +6287,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -6306,7 +6307,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -6326,7 +6327,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -6346,7 +6347,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -6366,7 +6367,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -6386,7 +6387,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -6406,7 +6407,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -6426,7 +6427,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -6446,7 +6447,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -6466,7 +6467,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -6486,7 +6487,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -6503,10 +6504,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B25" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -6523,10 +6524,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B26" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -6543,10 +6544,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B27" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -6563,10 +6564,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B28" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -6583,10 +6584,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B29" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -6603,10 +6604,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B30" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -6623,10 +6624,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B31" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -6643,10 +6644,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B32" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -6663,10 +6664,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B33" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -6683,10 +6684,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B34" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -6703,10 +6704,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6723,10 +6724,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B36" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -6743,10 +6744,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B37" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -6763,10 +6764,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B38" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -6783,10 +6784,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B39" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -6803,10 +6804,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B40" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -6823,10 +6824,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B41" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -6843,10 +6844,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B42" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -6863,10 +6864,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B43" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -6883,10 +6884,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B44" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -6906,7 +6907,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -6926,7 +6927,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -6946,7 +6947,7 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -6966,7 +6967,7 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -6986,7 +6987,7 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -7006,7 +7007,7 @@
         <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -7026,7 +7027,7 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -7046,7 +7047,7 @@
         <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -7066,7 +7067,7 @@
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -7086,7 +7087,7 @@
         <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -7106,7 +7107,7 @@
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -7126,7 +7127,7 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -7158,7 +7159,7 @@
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7178,7 +7179,7 @@
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7186,7 +7187,7 @@
         <v>312</v>
       </c>
       <c r="B59" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -7206,7 +7207,7 @@
         <v>312</v>
       </c>
       <c r="B60" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -7226,7 +7227,7 @@
         <v>312</v>
       </c>
       <c r="B61" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -7246,7 +7247,7 @@
         <v>312</v>
       </c>
       <c r="B62" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -7266,7 +7267,7 @@
         <v>312</v>
       </c>
       <c r="B63" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -7286,7 +7287,7 @@
         <v>312</v>
       </c>
       <c r="B64" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
@@ -7312,20 +7313,20 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5454545454545" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="19.5416666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.4545454545455" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5454545454545" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5454545454545" style="4" customWidth="1"/>
-    <col min="5" max="6" width="19.5454545454545" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="19.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="19.5416666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.4583333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5416666666667" style="4" customWidth="1"/>
+    <col min="5" max="6" width="19.5416666666667" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="19.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7365,13 +7366,13 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -7626,7 +7627,7 @@
         <v>274</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -7646,7 +7647,7 @@
         <v>274</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -7666,7 +7667,7 @@
         <v>274</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -7686,7 +7687,7 @@
         <v>274</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -7706,7 +7707,7 @@
         <v>274</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -7726,7 +7727,7 @@
         <v>274</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -7746,7 +7747,7 @@
         <v>274</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -7766,7 +7767,7 @@
         <v>274</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -7786,7 +7787,7 @@
         <v>274</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -7806,7 +7807,7 @@
         <v>274</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -7826,7 +7827,7 @@
         <v>274</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -7846,7 +7847,7 @@
         <v>274</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -7866,7 +7867,7 @@
         <v>274</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -7886,7 +7887,7 @@
         <v>274</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -7906,7 +7907,7 @@
         <v>274</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -7926,7 +7927,7 @@
         <v>274</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -7946,7 +7947,7 @@
         <v>274</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -7966,7 +7967,7 @@
         <v>274</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -7986,7 +7987,7 @@
         <v>274</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -8006,7 +8007,7 @@
         <v>274</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -8026,7 +8027,7 @@
         <v>274</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -8046,7 +8047,7 @@
         <v>274</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -8066,7 +8067,7 @@
         <v>274</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -8086,7 +8087,7 @@
         <v>274</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -8106,7 +8107,7 @@
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -8126,7 +8127,7 @@
         <v>274</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -8146,7 +8147,7 @@
         <v>274</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -8166,7 +8167,7 @@
         <v>274</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -8186,7 +8187,7 @@
         <v>274</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -8206,7 +8207,7 @@
         <v>274</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -8226,7 +8227,7 @@
         <v>274</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -8246,7 +8247,7 @@
         <v>274</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -8266,7 +8267,7 @@
         <v>274</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -8286,7 +8287,7 @@
         <v>274</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -8306,7 +8307,7 @@
         <v>274</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -8326,7 +8327,7 @@
         <v>274</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -8346,7 +8347,7 @@
         <v>274</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -8366,7 +8367,7 @@
         <v>274</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -8386,7 +8387,7 @@
         <v>274</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -8406,7 +8407,7 @@
         <v>274</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -8426,7 +8427,7 @@
         <v>274</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -8446,7 +8447,7 @@
         <v>274</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -8466,7 +8467,7 @@
         <v>274</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -8486,7 +8487,7 @@
         <v>274</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -8506,7 +8507,7 @@
         <v>274</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -8526,7 +8527,7 @@
         <v>274</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -8546,7 +8547,7 @@
         <v>274</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -8566,7 +8567,7 @@
         <v>274</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -8586,7 +8587,7 @@
         <v>274</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -8606,7 +8607,7 @@
         <v>274</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -8626,7 +8627,7 @@
         <v>274</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -8646,7 +8647,7 @@
         <v>274</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -8666,7 +8667,7 @@
         <v>274</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -8686,7 +8687,7 @@
         <v>274</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -8706,7 +8707,7 @@
         <v>274</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -8726,7 +8727,7 @@
         <v>274</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -8746,7 +8747,7 @@
         <v>274</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -8766,7 +8767,7 @@
         <v>274</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -8786,7 +8787,7 @@
         <v>274</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -8806,7 +8807,7 @@
         <v>274</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -8826,7 +8827,7 @@
         <v>274</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -8846,7 +8847,7 @@
         <v>274</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C79" s="2">
         <v>2</v>
@@ -8866,7 +8867,7 @@
         <v>274</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C80" s="2">
         <v>2</v>
@@ -8886,7 +8887,7 @@
         <v>274</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
@@ -8906,7 +8907,7 @@
         <v>274</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C82" s="2">
         <v>2</v>
@@ -8926,7 +8927,7 @@
         <v>274</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
@@ -8946,7 +8947,7 @@
         <v>274</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C84" s="2">
         <v>2</v>
@@ -8966,7 +8967,7 @@
         <v>274</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
@@ -8986,7 +8987,7 @@
         <v>274</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C86" s="2">
         <v>2</v>
@@ -9006,7 +9007,7 @@
         <v>274</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C87" s="2">
         <v>2</v>
@@ -9026,7 +9027,7 @@
         <v>274</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C88" s="2">
         <v>2</v>
@@ -9046,7 +9047,7 @@
         <v>274</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C89" s="2">
         <v>2</v>
@@ -9066,7 +9067,7 @@
         <v>274</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
@@ -9086,7 +9087,7 @@
         <v>274</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C91" s="2">
         <v>2</v>
@@ -9106,7 +9107,7 @@
         <v>274</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C92" s="2">
         <v>2</v>
@@ -9126,7 +9127,7 @@
         <v>274</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
@@ -9146,7 +9147,7 @@
         <v>274</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C94" s="2">
         <v>2</v>
@@ -9166,7 +9167,7 @@
         <v>254</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
@@ -9186,7 +9187,7 @@
         <v>254</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
@@ -9206,7 +9207,7 @@
         <v>254</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
@@ -9226,7 +9227,7 @@
         <v>254</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
@@ -9246,7 +9247,7 @@
         <v>312</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
@@ -9266,7 +9267,7 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 C1:C5 E1:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 E1:E5"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
@@ -9288,7 +9289,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -9315,7 +9316,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9335,7 +9336,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9355,7 +9356,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9375,7 +9376,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9395,7 +9396,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9415,7 +9416,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9435,7 +9436,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9455,7 +9456,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9475,7 +9476,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -9495,7 +9496,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9515,7 +9516,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9535,7 +9536,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9555,7 +9556,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -9575,7 +9576,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -9595,7 +9596,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -9615,7 +9616,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -9635,7 +9636,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -9655,7 +9656,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -9675,7 +9676,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -9695,7 +9696,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -9715,7 +9716,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -9735,7 +9736,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -9755,7 +9756,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9775,7 +9776,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -9795,7 +9796,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -9815,7 +9816,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -9835,7 +9836,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -9855,7 +9856,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -9875,7 +9876,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -9895,7 +9896,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -9912,10 +9913,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B32" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -9932,10 +9933,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B33" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -9952,10 +9953,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B34" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -9972,10 +9973,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B35" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -9992,10 +9993,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B36" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -10012,10 +10013,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B37" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -10032,10 +10033,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B38" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -10052,10 +10053,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B39" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -10072,10 +10073,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B40" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -10092,10 +10093,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B41" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -10112,10 +10113,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B42" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -10132,10 +10133,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B43" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -10152,10 +10153,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B44" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -10172,10 +10173,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B45" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -10192,10 +10193,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B46" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -10212,10 +10213,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B47" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -10232,10 +10233,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B48" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -10252,10 +10253,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B49" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -10272,10 +10273,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B50" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -10292,10 +10293,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B51" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -10315,7 +10316,7 @@
         <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -10335,7 +10336,7 @@
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -10355,7 +10356,7 @@
         <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -10375,7 +10376,7 @@
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -10395,7 +10396,7 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -10415,7 +10416,7 @@
         <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -10435,7 +10436,7 @@
         <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -10455,7 +10456,7 @@
         <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -10475,7 +10476,7 @@
         <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -10495,7 +10496,7 @@
         <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -10515,7 +10516,7 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -10535,7 +10536,7 @@
         <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -10567,7 +10568,7 @@
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -10587,7 +10588,7 @@
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -10605,7 +10606,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -10632,7 +10633,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10652,7 +10653,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -10672,7 +10673,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -10692,7 +10693,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -10712,7 +10713,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -10732,7 +10733,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -10752,7 +10753,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -10772,7 +10773,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -10792,7 +10793,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -10812,7 +10813,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -10832,7 +10833,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -10852,7 +10853,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -10872,7 +10873,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -10892,7 +10893,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -10912,7 +10913,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -10932,7 +10933,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -10952,7 +10953,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -10972,7 +10973,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -10992,7 +10993,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -11012,7 +11013,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -11044,7 +11045,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11052,7 +11053,7 @@
         <v>274</v>
       </c>
       <c r="B23" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -11072,7 +11073,7 @@
         <v>274</v>
       </c>
       <c r="B24" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -11092,7 +11093,7 @@
         <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -11112,7 +11113,7 @@
         <v>274</v>
       </c>
       <c r="B26" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -11132,7 +11133,7 @@
         <v>274</v>
       </c>
       <c r="B27" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -11152,7 +11153,7 @@
         <v>274</v>
       </c>
       <c r="B28" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
@@ -11172,7 +11173,7 @@
         <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -11192,7 +11193,7 @@
         <v>274</v>
       </c>
       <c r="B30" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -11212,7 +11213,7 @@
         <v>274</v>
       </c>
       <c r="B31" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -11232,7 +11233,7 @@
         <v>274</v>
       </c>
       <c r="B32" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -11252,7 +11253,7 @@
         <v>274</v>
       </c>
       <c r="B33" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -11272,7 +11273,7 @@
         <v>274</v>
       </c>
       <c r="B34" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -11292,7 +11293,7 @@
         <v>274</v>
       </c>
       <c r="B35" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -11312,7 +11313,7 @@
         <v>274</v>
       </c>
       <c r="B36" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -11332,7 +11333,7 @@
         <v>274</v>
       </c>
       <c r="B37" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -11352,7 +11353,7 @@
         <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
@@ -11372,7 +11373,7 @@
         <v>274</v>
       </c>
       <c r="B39" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
@@ -11392,7 +11393,7 @@
         <v>274</v>
       </c>
       <c r="B40" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -11412,7 +11413,7 @@
         <v>274</v>
       </c>
       <c r="B41" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -11432,7 +11433,7 @@
         <v>274</v>
       </c>
       <c r="B42" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
@@ -11452,7 +11453,7 @@
         <v>274</v>
       </c>
       <c r="B43" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -11472,7 +11473,7 @@
         <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -11492,7 +11493,7 @@
         <v>274</v>
       </c>
       <c r="B45" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -11512,7 +11513,7 @@
         <v>274</v>
       </c>
       <c r="B46" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
@@ -11532,7 +11533,7 @@
         <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
@@ -11552,7 +11553,7 @@
         <v>274</v>
       </c>
       <c r="B48" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
@@ -11572,7 +11573,7 @@
         <v>274</v>
       </c>
       <c r="B49" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
@@ -11592,7 +11593,7 @@
         <v>274</v>
       </c>
       <c r="B50" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
@@ -11612,7 +11613,7 @@
         <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -11632,7 +11633,7 @@
         <v>274</v>
       </c>
       <c r="B52" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -11652,7 +11653,7 @@
         <v>274</v>
       </c>
       <c r="B53" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -11672,7 +11673,7 @@
         <v>274</v>
       </c>
       <c r="B54" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
@@ -11692,7 +11693,7 @@
         <v>274</v>
       </c>
       <c r="B55" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
@@ -11712,7 +11713,7 @@
         <v>274</v>
       </c>
       <c r="B56" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -11732,7 +11733,7 @@
         <v>274</v>
       </c>
       <c r="B57" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
@@ -11752,7 +11753,7 @@
         <v>274</v>
       </c>
       <c r="B58" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
@@ -11772,7 +11773,7 @@
         <v>274</v>
       </c>
       <c r="B59" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -11792,7 +11793,7 @@
         <v>274</v>
       </c>
       <c r="B60" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -11812,7 +11813,7 @@
         <v>274</v>
       </c>
       <c r="B61" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -11832,7 +11833,7 @@
         <v>274</v>
       </c>
       <c r="B62" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -11852,7 +11853,7 @@
         <v>274</v>
       </c>
       <c r="B63" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -11872,7 +11873,7 @@
         <v>274</v>
       </c>
       <c r="B64" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
@@ -11892,7 +11893,7 @@
         <v>274</v>
       </c>
       <c r="B65" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -11912,7 +11913,7 @@
         <v>274</v>
       </c>
       <c r="B66" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
@@ -11932,7 +11933,7 @@
         <v>274</v>
       </c>
       <c r="B67" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -11964,7 +11965,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -11982,7 +11983,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -12009,7 +12010,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12029,7 +12030,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12049,7 +12050,7 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -12069,7 +12070,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -12089,7 +12090,7 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12109,7 +12110,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -12129,7 +12130,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -12149,7 +12150,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -12169,7 +12170,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -12189,7 +12190,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -12209,7 +12210,7 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -12229,7 +12230,7 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -12249,7 +12250,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -12269,7 +12270,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -12289,7 +12290,7 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -12309,7 +12310,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -12329,7 +12330,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -12349,7 +12350,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -12369,7 +12370,7 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -12389,7 +12390,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -12409,7 +12410,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -12429,7 +12430,7 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -12459,7 +12460,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -12486,7 +12487,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12506,7 +12507,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12526,7 +12527,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -12546,7 +12547,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -12566,7 +12567,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -12586,7 +12587,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -12616,16 +12617,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.45454545454545" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="6.45833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="35.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="4.54545454545455" customWidth="1"/>
+    <col min="2" max="2" width="35.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="4.54166666666667" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="5.54545454545455" customWidth="1"/>
-    <col min="6" max="6" width="15.1818181818182" customWidth="1"/>
-    <col min="7" max="8" width="2.54545454545455" customWidth="1"/>
-    <col min="9" max="16384" width="6.45454545454545" customWidth="1"/>
+    <col min="5" max="5" width="5.54166666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.1833333333333" customWidth="1"/>
+    <col min="7" max="8" width="2.54166666666667" customWidth="1"/>
+    <col min="9" max="16384" width="6.45833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -12682,7 +12683,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -12699,10 +12700,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -12719,10 +12720,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -12739,10 +12740,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -12774,7 +12775,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12782,7 +12783,7 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -12793,10 +12794,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -12807,10 +12808,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B15" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -12821,7 +12822,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:4">
       <c r="A18" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -12862,14 +12863,14 @@
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5454545454545" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="19.5416666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.4545454545455" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5454545454545" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5454545454545" style="4" customWidth="1"/>
-    <col min="5" max="6" width="19.5454545454545" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="19.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="19.5416666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.4583333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5416666666667" style="4" customWidth="1"/>
+    <col min="5" max="6" width="19.5416666666667" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="19.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12909,13 +12910,13 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -13171,11 +13172,11 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 C1:C5 E1:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 E1:E5"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E17 E18:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1048576">
       <formula1>"1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13193,7 +13194,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -13810,7 +13811,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -13847,7 +13848,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -14364,7 +14365,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -15481,7 +15482,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -18638,7 +18639,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -20709,3812 +20710,3831 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G193" sqref="G193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" style="10" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
         <v>555</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
         <v>472</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>472</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>555</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>100</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
         <v>100</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
         <v>100</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10">
         <v>100</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
         <v>100</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="10">
         <v>100</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>100</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
         <v>100</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
         <v>100</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
         <v>349</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
         <v>100</v>
       </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
         <v>375</v>
       </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="10">
         <v>375</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="10">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="10">
         <v>349</v>
       </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="10">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10">
         <v>100</v>
       </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10">
         <v>100</v>
       </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10">
         <v>100</v>
       </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10">
         <v>100</v>
       </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="10">
         <v>3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="10">
         <v>100</v>
       </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="10">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="10">
         <v>100</v>
       </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10">
         <v>100</v>
       </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="A29" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10">
         <v>100</v>
       </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="A30" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10">
         <v>100</v>
       </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="A31" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10">
         <v>100</v>
       </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="A32" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
         <v>623</v>
       </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="A33" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
         <v>100</v>
       </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="A34" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10">
         <v>613</v>
       </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" t="s">
+      <c r="A35" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="10">
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="10">
         <v>613</v>
       </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="A36" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="10">
         <v>623</v>
       </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="A37" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="10">
         <v>4</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="10">
         <v>100</v>
       </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="A38" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10">
         <v>100</v>
       </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="A39" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="10">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10">
         <v>100</v>
       </c>
-      <c r="E39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="A40" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="10">
+        <v>2</v>
+      </c>
+      <c r="D40" s="10">
         <v>100</v>
       </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="A41" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10">
         <v>100</v>
       </c>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="A42" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="10">
         <v>3</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="10">
         <v>100</v>
       </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="A43" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="10">
         <v>3</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="10">
         <v>100</v>
       </c>
-      <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="A44" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10">
         <v>100</v>
       </c>
-      <c r="E44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="A45" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="10">
+        <v>2</v>
+      </c>
+      <c r="D45" s="10">
         <v>100</v>
       </c>
-      <c r="E45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="A46" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
         <v>437</v>
       </c>
-      <c r="E46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" t="s">
+      <c r="A47" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10">
         <v>100</v>
       </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" t="s">
+      <c r="A48" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="10">
+        <v>2</v>
+      </c>
+      <c r="D48" s="10">
         <v>412</v>
       </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" t="s">
+      <c r="A49" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="10">
         <v>3</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="10">
         <v>412</v>
       </c>
-      <c r="E49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" t="s">
+      <c r="A50" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="10">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="10">
         <v>437</v>
       </c>
-      <c r="E50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" t="s">
+      <c r="A51" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="10">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="10">
         <v>100</v>
       </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" t="s">
+      <c r="A52" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="10">
+        <v>2</v>
+      </c>
+      <c r="D52" s="10">
         <v>100</v>
       </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="A53" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="10">
+        <v>2</v>
+      </c>
+      <c r="D53" s="10">
         <v>100</v>
       </c>
-      <c r="E53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" t="s">
+      <c r="A54" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="10">
+        <v>2</v>
+      </c>
+      <c r="D54" s="10">
         <v>100</v>
       </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" t="s">
+      <c r="A55" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="10">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10">
         <v>100</v>
       </c>
-      <c r="E55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="A56" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="10">
         <v>3</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="10">
         <v>100</v>
       </c>
-      <c r="E56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="A57" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="10">
         <v>3</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="10">
         <v>100</v>
       </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" t="s">
+      <c r="A58" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
+      <c r="C58" s="10">
+        <v>2</v>
+      </c>
+      <c r="D58" s="10">
         <v>100</v>
       </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" t="s">
+      <c r="A59" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="10">
+        <v>2</v>
+      </c>
+      <c r="D59" s="10">
         <v>100</v>
       </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" t="s">
+      <c r="A60" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="10">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10">
         <v>126</v>
       </c>
-      <c r="E60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" t="s">
+      <c r="A61" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
         <v>100</v>
       </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" t="s">
+      <c r="A62" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
+      <c r="C62" s="10">
+        <v>2</v>
+      </c>
+      <c r="D62" s="10">
         <v>133</v>
       </c>
-      <c r="E62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" t="s">
+      <c r="A63" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="10">
         <v>4</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="10">
         <v>126</v>
       </c>
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" t="s">
+      <c r="A64" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="10">
         <v>4</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="10">
         <v>100</v>
       </c>
-      <c r="E64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E64" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" t="s">
+      <c r="A65" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="10">
+        <v>2</v>
+      </c>
+      <c r="D65" s="10">
         <v>100</v>
       </c>
-      <c r="E65" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" t="s">
+      <c r="A66" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="10">
+        <v>2</v>
+      </c>
+      <c r="D66" s="10">
         <v>100</v>
       </c>
-      <c r="E66" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" t="s">
+      <c r="A67" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
+      <c r="C67" s="10">
+        <v>2</v>
+      </c>
+      <c r="D67" s="10">
         <v>100</v>
       </c>
-      <c r="E67" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E67" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" t="s">
+      <c r="A68" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
+      <c r="C68" s="10">
+        <v>2</v>
+      </c>
+      <c r="D68" s="10">
         <v>100</v>
       </c>
-      <c r="E68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E68" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" t="s">
+      <c r="A69" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="10">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="10">
         <v>100</v>
       </c>
-      <c r="E69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E69" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" t="s">
+      <c r="A70" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="10">
         <v>3</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="10">
         <v>100</v>
       </c>
-      <c r="E70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E70" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" t="s">
+      <c r="A71" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71">
+      <c r="C71" s="10">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10">
         <v>100</v>
       </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E71" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" t="s">
+      <c r="A72" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
+      <c r="C72" s="10">
+        <v>2</v>
+      </c>
+      <c r="D72" s="10">
         <v>100</v>
       </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="E72" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" t="s">
+      <c r="A73" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="10">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
         <v>335</v>
       </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E73" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" t="s">
+      <c r="A74" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="10">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10">
         <v>100</v>
       </c>
-      <c r="E74" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E74" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" t="s">
+      <c r="A75" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="10">
+        <v>2</v>
+      </c>
+      <c r="D75" s="10">
         <v>296</v>
       </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" t="s">
+      <c r="A76" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="10">
         <v>3</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="10">
         <v>296</v>
       </c>
-      <c r="E76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E76" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" t="s">
+      <c r="A77" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="10">
         <v>4</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="10">
         <v>335</v>
       </c>
-      <c r="E77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E77" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" t="s">
+      <c r="A78" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="10">
         <v>4</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="10">
         <v>100</v>
       </c>
-      <c r="E78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E78" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" t="s">
+      <c r="A79" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="10">
+        <v>2</v>
+      </c>
+      <c r="D79" s="10">
         <v>100</v>
       </c>
-      <c r="E79" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E79" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" t="s">
+      <c r="A80" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="10">
+        <v>2</v>
+      </c>
+      <c r="D80" s="10">
         <v>100</v>
       </c>
-      <c r="E80" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E80" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" t="s">
+      <c r="A81" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="10">
+        <v>2</v>
+      </c>
+      <c r="D81" s="10">
         <v>100</v>
       </c>
-      <c r="E81" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E81" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" t="s">
+      <c r="A82" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="10">
+        <v>2</v>
+      </c>
+      <c r="D82" s="10">
         <v>100</v>
       </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E82" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" t="s">
+      <c r="A83" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="10">
         <v>3</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="10">
         <v>100</v>
       </c>
-      <c r="E83" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E83" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" t="s">
+      <c r="A84" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="10">
         <v>3</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="10">
         <v>100</v>
       </c>
-      <c r="E84" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E84" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" t="s">
+      <c r="A85" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="10">
+        <v>2</v>
+      </c>
+      <c r="D85" s="10">
         <v>100</v>
       </c>
-      <c r="E85" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="E85" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" t="s">
+      <c r="A86" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="10">
+        <v>2</v>
+      </c>
+      <c r="D86" s="10">
         <v>100</v>
       </c>
-      <c r="E86" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="E86" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" t="s">
+      <c r="A87" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="10">
+        <v>1</v>
+      </c>
+      <c r="D87" s="10">
         <v>523</v>
       </c>
-      <c r="E87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="E87" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" t="s">
+      <c r="A88" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="10">
+        <v>1</v>
+      </c>
+      <c r="D88" s="10">
         <v>100</v>
       </c>
-      <c r="E88" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E88" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" t="s">
+      <c r="A89" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="10">
+        <v>2</v>
+      </c>
+      <c r="D89" s="10">
         <v>514</v>
       </c>
-      <c r="E89" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E89" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" t="s">
+      <c r="A90" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="10">
         <v>3</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="10">
         <v>514</v>
       </c>
-      <c r="E90" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="E90" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" t="s">
+      <c r="A91" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="10">
         <v>4</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="10">
         <v>523</v>
       </c>
-      <c r="E91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="E91" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" t="s">
+      <c r="A92" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="10">
         <v>4</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="10">
         <v>100</v>
       </c>
-      <c r="E92" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E92" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" t="s">
+      <c r="A93" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="10">
+        <v>2</v>
+      </c>
+      <c r="D93" s="10">
         <v>100</v>
       </c>
-      <c r="E93" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E93" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" t="s">
+      <c r="A94" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94">
+      <c r="C94" s="10">
+        <v>2</v>
+      </c>
+      <c r="D94" s="10">
         <v>100</v>
       </c>
-      <c r="E94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" t="s">
+      <c r="A95" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="10">
+        <v>2</v>
+      </c>
+      <c r="D95" s="10">
         <v>100</v>
       </c>
-      <c r="E95" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="E95" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" t="s">
+      <c r="A96" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
+      <c r="C96" s="10">
+        <v>2</v>
+      </c>
+      <c r="D96" s="10">
         <v>100</v>
       </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E96" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" t="s">
+      <c r="A97" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="10">
         <v>3</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="10">
         <v>100</v>
       </c>
-      <c r="E97" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E97" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" t="s">
+      <c r="A98" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="10">
         <v>3</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="10">
         <v>100</v>
       </c>
-      <c r="E98" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E98" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" t="s">
+      <c r="A99" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99">
+      <c r="C99" s="10">
+        <v>2</v>
+      </c>
+      <c r="D99" s="10">
         <v>100</v>
       </c>
-      <c r="E99" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E99" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" t="s">
+      <c r="A100" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
+      <c r="C100" s="10">
+        <v>2</v>
+      </c>
+      <c r="D100" s="10">
         <v>100</v>
       </c>
-      <c r="E100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E100" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" t="s">
+      <c r="A101" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
+      <c r="C101" s="10">
+        <v>2</v>
+      </c>
+      <c r="D101" s="10">
         <v>100</v>
       </c>
-      <c r="E101" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="E101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" t="s">
+      <c r="A102" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
+      <c r="C102" s="10">
+        <v>2</v>
+      </c>
+      <c r="D102" s="10">
         <v>100</v>
       </c>
-      <c r="E102" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="E102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" t="s">
+      <c r="A103" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="10">
+        <v>1</v>
+      </c>
+      <c r="D103" s="10">
         <v>445</v>
       </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="E103" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" t="s">
+      <c r="A104" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
+      <c r="C104" s="10">
+        <v>1</v>
+      </c>
+      <c r="D104" s="10">
         <v>100</v>
       </c>
-      <c r="E104" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="E104" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" t="s">
+      <c r="A105" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="10">
+        <v>2</v>
+      </c>
+      <c r="D105" s="10">
         <v>449</v>
       </c>
-      <c r="E105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="E105" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" t="s">
+      <c r="A106" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="10">
         <v>3</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="10">
         <v>449</v>
       </c>
-      <c r="E106" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E106" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" t="s">
+      <c r="A107" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="10">
         <v>4</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="10">
         <v>445</v>
       </c>
-      <c r="E107" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E107" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" t="s">
+      <c r="A108" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="10">
         <v>4</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="10">
         <v>100</v>
       </c>
-      <c r="E108" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E108" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" t="s">
+      <c r="A109" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109">
+      <c r="C109" s="10">
+        <v>2</v>
+      </c>
+      <c r="D109" s="10">
         <v>100</v>
       </c>
-      <c r="E109" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E109" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" t="s">
+      <c r="A110" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-      <c r="D110">
+      <c r="C110" s="10">
+        <v>2</v>
+      </c>
+      <c r="D110" s="10">
         <v>100</v>
       </c>
-      <c r="E110" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="E110" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" t="s">
+      <c r="A111" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
+      <c r="C111" s="10">
+        <v>2</v>
+      </c>
+      <c r="D111" s="10">
         <v>100</v>
       </c>
-      <c r="E111" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="E111" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" t="s">
+      <c r="A112" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-      <c r="D112">
+      <c r="C112" s="10">
+        <v>2</v>
+      </c>
+      <c r="D112" s="10">
         <v>100</v>
       </c>
-      <c r="E112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="E112" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" t="s">
+      <c r="A113" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="10">
         <v>3</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="10">
         <v>100</v>
       </c>
-      <c r="E113" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E113" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" t="s">
+      <c r="A114" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="10">
         <v>3</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="10">
         <v>100</v>
       </c>
-      <c r="E114" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="E114" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" t="s">
+      <c r="A115" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115">
+      <c r="C115" s="10">
+        <v>2</v>
+      </c>
+      <c r="D115" s="10">
         <v>100</v>
       </c>
-      <c r="E115" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="E115" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" t="s">
+      <c r="A116" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
+      <c r="C116" s="10">
+        <v>2</v>
+      </c>
+      <c r="D116" s="10">
         <v>100</v>
       </c>
-      <c r="E116" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="E116" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" t="s">
+      <c r="A117" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
+      <c r="C117" s="10">
+        <v>1</v>
+      </c>
+      <c r="D117" s="10">
         <v>365</v>
       </c>
-      <c r="E117" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="E117" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" t="s">
+      <c r="A118" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
+      <c r="C118" s="10">
+        <v>1</v>
+      </c>
+      <c r="D118" s="10">
         <v>100</v>
       </c>
-      <c r="E118" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="E118" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" t="s">
+      <c r="A119" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119">
+      <c r="C119" s="10">
+        <v>2</v>
+      </c>
+      <c r="D119" s="10">
         <v>309</v>
       </c>
-      <c r="E119" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="E119" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" t="s">
+      <c r="A120" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="10">
         <v>3</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="10">
         <v>309</v>
       </c>
-      <c r="E120" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="E120" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" t="s">
+      <c r="A121" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="10">
         <v>4</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="10">
         <v>365</v>
       </c>
-      <c r="E121" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="E121" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" t="s">
+      <c r="A122" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="10">
         <v>4</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="10">
         <v>100</v>
       </c>
-      <c r="E122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="E122" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" t="s">
+      <c r="A123" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C123">
-        <v>2</v>
-      </c>
-      <c r="D123">
+      <c r="C123" s="10">
+        <v>2</v>
+      </c>
+      <c r="D123" s="10">
         <v>100</v>
       </c>
-      <c r="E123" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="E123" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" t="s">
+      <c r="A124" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-      <c r="D124">
+      <c r="C124" s="10">
+        <v>2</v>
+      </c>
+      <c r="D124" s="10">
         <v>100</v>
       </c>
-      <c r="E124" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="E124" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" t="s">
+      <c r="A125" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-      <c r="D125">
+      <c r="C125" s="10">
+        <v>2</v>
+      </c>
+      <c r="D125" s="10">
         <v>100</v>
       </c>
-      <c r="E125" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="E125" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" t="s">
+      <c r="A126" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C126">
-        <v>2</v>
-      </c>
-      <c r="D126">
+      <c r="C126" s="10">
+        <v>2</v>
+      </c>
+      <c r="D126" s="10">
         <v>100</v>
       </c>
-      <c r="E126" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="E126" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" t="s">
+      <c r="A127" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="10">
         <v>3</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="10">
         <v>100</v>
       </c>
-      <c r="E127" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="E127" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" t="s">
+      <c r="A128" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="10">
         <v>3</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="10">
         <v>100</v>
       </c>
-      <c r="E128" t="s">
-        <v>15</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="E128" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" t="s">
+      <c r="A129" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="C129">
-        <v>2</v>
-      </c>
-      <c r="D129">
+      <c r="C129" s="10">
+        <v>2</v>
+      </c>
+      <c r="D129" s="10">
         <v>100</v>
       </c>
-      <c r="E129" t="s">
-        <v>15</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="E129" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" t="s">
+      <c r="A130" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="C130">
-        <v>2</v>
-      </c>
-      <c r="D130">
+      <c r="C130" s="10">
+        <v>2</v>
+      </c>
+      <c r="D130" s="10">
         <v>100</v>
       </c>
-      <c r="E130" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="E130" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" t="s">
+      <c r="A131" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
+      <c r="C131" s="10">
+        <v>1</v>
+      </c>
+      <c r="D131" s="10">
         <v>420</v>
       </c>
-      <c r="E131" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="E131" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" t="s">
+      <c r="A132" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132">
+      <c r="C132" s="10">
+        <v>1</v>
+      </c>
+      <c r="D132" s="10">
         <v>100</v>
       </c>
-      <c r="E132" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="E132" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" t="s">
+      <c r="A133" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C133">
-        <v>2</v>
-      </c>
-      <c r="D133">
+      <c r="C133" s="10">
+        <v>2</v>
+      </c>
+      <c r="D133" s="10">
         <v>498</v>
       </c>
-      <c r="E133" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="E133" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" t="s">
+      <c r="A134" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="10">
         <v>3</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="10">
         <v>498</v>
       </c>
-      <c r="E134" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="E134" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" t="s">
+      <c r="A135" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="10">
         <v>4</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="10">
         <v>420</v>
       </c>
-      <c r="E135" t="s">
-        <v>15</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="E135" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" t="s">
+      <c r="A136" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="10">
         <v>4</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="10">
         <v>100</v>
       </c>
-      <c r="E136" t="s">
-        <v>15</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="E136" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" t="s">
+      <c r="A137" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C137">
-        <v>2</v>
-      </c>
-      <c r="D137">
+      <c r="C137" s="10">
+        <v>2</v>
+      </c>
+      <c r="D137" s="10">
         <v>100</v>
       </c>
-      <c r="E137" t="s">
-        <v>15</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="E137" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" t="s">
+      <c r="A138" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C138">
-        <v>2</v>
-      </c>
-      <c r="D138">
+      <c r="C138" s="10">
+        <v>2</v>
+      </c>
+      <c r="D138" s="10">
         <v>100</v>
       </c>
-      <c r="E138" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="E138" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" t="s">
+      <c r="A139" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="C139">
-        <v>2</v>
-      </c>
-      <c r="D139">
+      <c r="C139" s="10">
+        <v>2</v>
+      </c>
+      <c r="D139" s="10">
         <v>100</v>
       </c>
-      <c r="E139" t="s">
-        <v>15</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="E139" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" t="s">
+      <c r="A140" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C140">
-        <v>2</v>
-      </c>
-      <c r="D140">
+      <c r="C140" s="10">
+        <v>2</v>
+      </c>
+      <c r="D140" s="10">
         <v>100</v>
       </c>
-      <c r="E140" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="E140" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" t="s">
+      <c r="A141" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="10">
         <v>3</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="10">
         <v>100</v>
       </c>
-      <c r="E141" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="E141" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" t="s">
+      <c r="A142" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="10">
         <v>3</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="10">
         <v>100</v>
       </c>
-      <c r="E142" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="E142" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" t="s">
+      <c r="A143" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
-      <c r="D143">
+      <c r="C143" s="10">
+        <v>2</v>
+      </c>
+      <c r="D143" s="10">
         <v>100</v>
       </c>
-      <c r="E143" t="s">
-        <v>15</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="E143" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" t="s">
+      <c r="A144" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C144">
-        <v>2</v>
-      </c>
-      <c r="D144">
+      <c r="C144" s="10">
+        <v>2</v>
+      </c>
+      <c r="D144" s="10">
         <v>100</v>
       </c>
-      <c r="E144" t="s">
-        <v>15</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="E144" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" t="s">
+      <c r="A145" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
+      <c r="C145" s="10">
+        <v>1</v>
+      </c>
+      <c r="D145" s="10">
         <v>386</v>
       </c>
-      <c r="E145" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="E145" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" t="s">
+      <c r="A146" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
+      <c r="C146" s="10">
+        <v>1</v>
+      </c>
+      <c r="D146" s="10">
         <v>100</v>
       </c>
-      <c r="E146" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="E146" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" t="s">
+      <c r="A147" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C147">
-        <v>2</v>
-      </c>
-      <c r="D147">
+      <c r="C147" s="10">
+        <v>2</v>
+      </c>
+      <c r="D147" s="10">
         <v>390</v>
       </c>
-      <c r="E147" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="E147" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" t="s">
+      <c r="A148" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="10">
         <v>3</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="10">
         <v>390</v>
       </c>
-      <c r="E148" t="s">
-        <v>15</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="E148" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" t="s">
+      <c r="A149" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="10">
         <v>4</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="10">
         <v>386</v>
       </c>
-      <c r="E149" t="s">
-        <v>15</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="E149" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" t="s">
+      <c r="A150" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="10">
         <v>4</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="10">
         <v>100</v>
       </c>
-      <c r="E150" t="s">
-        <v>15</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="E150" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" t="s">
+      <c r="A151" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="C151">
-        <v>2</v>
-      </c>
-      <c r="D151">
+      <c r="C151" s="10">
+        <v>2</v>
+      </c>
+      <c r="D151" s="10">
         <v>100</v>
       </c>
-      <c r="E151" t="s">
-        <v>15</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="E151" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" t="s">
+      <c r="A152" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C152">
-        <v>2</v>
-      </c>
-      <c r="D152">
+      <c r="C152" s="10">
+        <v>2</v>
+      </c>
+      <c r="D152" s="10">
         <v>100</v>
       </c>
-      <c r="E152" t="s">
-        <v>15</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="E152" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" t="s">
+      <c r="A153" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C153">
-        <v>2</v>
-      </c>
-      <c r="D153">
+      <c r="C153" s="10">
+        <v>2</v>
+      </c>
+      <c r="D153" s="10">
         <v>100</v>
       </c>
-      <c r="E153" t="s">
-        <v>15</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="E153" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" t="s">
+      <c r="A154" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="C154">
-        <v>2</v>
-      </c>
-      <c r="D154">
+      <c r="C154" s="10">
+        <v>2</v>
+      </c>
+      <c r="D154" s="10">
         <v>100</v>
       </c>
-      <c r="E154" t="s">
-        <v>15</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="E154" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" t="s">
+      <c r="A155" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="10">
         <v>3</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="10">
         <v>100</v>
       </c>
-      <c r="E155" t="s">
-        <v>15</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="E155" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" t="s">
+      <c r="A156" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="10">
         <v>3</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="10">
         <v>100</v>
       </c>
-      <c r="E156" t="s">
-        <v>15</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="E156" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" t="s">
+      <c r="A157" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="C157">
-        <v>2</v>
-      </c>
-      <c r="D157">
+      <c r="C157" s="10">
+        <v>2</v>
+      </c>
+      <c r="D157" s="10">
         <v>100</v>
       </c>
-      <c r="E157" t="s">
-        <v>15</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="E157" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" t="s">
+      <c r="A158" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="C158">
-        <v>2</v>
-      </c>
-      <c r="D158">
+      <c r="C158" s="10">
+        <v>2</v>
+      </c>
+      <c r="D158" s="10">
         <v>100</v>
       </c>
-      <c r="E158" t="s">
-        <v>15</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="E158" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" t="s">
+      <c r="A159" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159">
+      <c r="C159" s="10">
+        <v>1</v>
+      </c>
+      <c r="D159" s="10">
         <v>202</v>
       </c>
-      <c r="E159" t="s">
-        <v>15</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="E159" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" t="s">
+      <c r="A160" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160">
+      <c r="C160" s="10">
+        <v>1</v>
+      </c>
+      <c r="D160" s="10">
         <v>100</v>
       </c>
-      <c r="E160" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="E160" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" t="s">
+      <c r="A161" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="C161">
-        <v>2</v>
-      </c>
-      <c r="D161">
+      <c r="C161" s="10">
+        <v>2</v>
+      </c>
+      <c r="D161" s="10">
         <v>168</v>
       </c>
-      <c r="E161" t="s">
-        <v>15</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="E161" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" t="s">
+      <c r="A162" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="10">
         <v>3</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="10">
         <v>168</v>
       </c>
-      <c r="E162" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="E162" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" t="s">
+      <c r="A163" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="10">
         <v>4</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="10">
         <v>202</v>
       </c>
-      <c r="E163" t="s">
-        <v>15</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="E163" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" t="s">
+      <c r="A164" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="10">
         <v>4</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="10">
         <v>100</v>
       </c>
-      <c r="E164" t="s">
-        <v>15</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="E164" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" t="s">
+      <c r="A165" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="C165">
-        <v>2</v>
-      </c>
-      <c r="D165">
+      <c r="C165" s="10">
+        <v>2</v>
+      </c>
+      <c r="D165" s="10">
         <v>100</v>
       </c>
-      <c r="E165" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="E165" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" t="s">
+      <c r="A166" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="C166">
-        <v>2</v>
-      </c>
-      <c r="D166">
+      <c r="C166" s="10">
+        <v>2</v>
+      </c>
+      <c r="D166" s="10">
         <v>100</v>
       </c>
-      <c r="E166" t="s">
-        <v>15</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="E166" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" t="s">
+      <c r="A167" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="C167">
-        <v>2</v>
-      </c>
-      <c r="D167">
+      <c r="C167" s="10">
+        <v>2</v>
+      </c>
+      <c r="D167" s="10">
         <v>100</v>
       </c>
-      <c r="E167" t="s">
-        <v>15</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="E167" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" t="s">
+      <c r="A168" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-      <c r="D168">
+      <c r="C168" s="10">
+        <v>2</v>
+      </c>
+      <c r="D168" s="10">
         <v>100</v>
       </c>
-      <c r="E168" t="s">
-        <v>15</v>
-      </c>
-      <c r="F168" t="s">
+      <c r="E168" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" t="s">
+      <c r="A169" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="10">
         <v>3</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="10">
         <v>100</v>
       </c>
-      <c r="E169" t="s">
-        <v>15</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="E169" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" t="s">
+      <c r="A170" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="10">
         <v>3</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="10">
         <v>100</v>
       </c>
-      <c r="E170" t="s">
-        <v>15</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="E170" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" t="s">
+      <c r="A171" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="C171">
-        <v>2</v>
-      </c>
-      <c r="D171">
+      <c r="C171" s="10">
+        <v>2</v>
+      </c>
+      <c r="D171" s="10">
         <v>100</v>
       </c>
-      <c r="E171" t="s">
-        <v>15</v>
-      </c>
-      <c r="F171" t="s">
+      <c r="E171" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" t="s">
+      <c r="A172" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-      <c r="D172">
+      <c r="C172" s="10">
+        <v>2</v>
+      </c>
+      <c r="D172" s="10">
         <v>100</v>
       </c>
-      <c r="E172" t="s">
-        <v>15</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="E172" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" t="s">
+      <c r="A173" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B173" t="s">
-        <v>15</v>
-      </c>
-      <c r="C173" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E173" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="B173" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="10" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" t="s">
+      <c r="A174" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B174" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174" t="s">
-        <v>15</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="B174" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" s="10" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" t="s">
+      <c r="A175" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B175" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" t="s">
-        <v>15</v>
-      </c>
-      <c r="E175" t="s">
-        <v>15</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="B175" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="10" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" t="s">
+      <c r="A176" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B176" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176" t="s">
-        <v>15</v>
-      </c>
-      <c r="F176" t="s">
+      <c r="B176" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" s="10" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" t="s">
+      <c r="A177" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B177" t="s">
-        <v>15</v>
-      </c>
-      <c r="C177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="E177" t="s">
-        <v>15</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="B177" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="10" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" t="s">
+      <c r="A178" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B178" t="s">
-        <v>15</v>
-      </c>
-      <c r="C178" t="s">
-        <v>15</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178" t="s">
-        <v>15</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="B178" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="10" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" t="s">
+      <c r="A179" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="C179" t="s">
-        <v>15</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
+      <c r="C179" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="10">
+        <v>1</v>
+      </c>
+      <c r="E179" s="10">
+        <v>1</v>
+      </c>
+      <c r="F179" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" t="s">
+      <c r="A180" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="C180" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="C180" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="10">
+        <v>1</v>
+      </c>
+      <c r="E180" s="10">
+        <v>1</v>
+      </c>
+      <c r="F180" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" t="s">
+      <c r="A181" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="C181" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" t="s">
-        <v>15</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181" t="s">
+      <c r="C181" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="10">
+        <v>1</v>
+      </c>
+      <c r="F181" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" t="s">
+      <c r="A182" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="C182" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" t="s">
-        <v>15</v>
-      </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-      <c r="F182" t="s">
+      <c r="C182" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="10">
+        <v>1</v>
+      </c>
+      <c r="F182" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" t="s">
+      <c r="A183" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C183" t="s">
-        <v>15</v>
-      </c>
-      <c r="D183">
-        <v>2</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-      <c r="F183" t="s">
+      <c r="C183" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="10">
+        <v>2</v>
+      </c>
+      <c r="E183" s="10">
+        <v>1</v>
+      </c>
+      <c r="F183" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" t="s">
+      <c r="A184" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C184" t="s">
-        <v>15</v>
-      </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
+      <c r="C184" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="10">
+        <v>1</v>
+      </c>
+      <c r="E184" s="10">
+        <v>1</v>
+      </c>
+      <c r="F184" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" t="s">
+      <c r="A185" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="C185" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="C185" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="10">
+        <v>2</v>
+      </c>
+      <c r="E185" s="10">
+        <v>1</v>
+      </c>
+      <c r="F185" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" t="s">
+      <c r="A186" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C186" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" t="s">
-        <v>15</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="C186" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" s="10">
+        <v>1</v>
+      </c>
+      <c r="F186" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" t="s">
+      <c r="A187" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="C187" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" t="s">
-        <v>15</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="C187" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" s="10">
+        <v>1</v>
+      </c>
+      <c r="F187" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" t="s">
+      <c r="A188" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="C188" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" t="s">
-        <v>15</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" t="s">
+      <c r="C188" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" s="10">
+        <v>1</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E189" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B189" t="s">
-        <v>15</v>
-      </c>
-      <c r="C189" t="s">
-        <v>15</v>
-      </c>
-      <c r="D189" t="s">
-        <v>15</v>
-      </c>
-      <c r="E189" t="s">
-        <v>15</v>
-      </c>
-      <c r="F189" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" t="s">
+      <c r="B190" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B190" t="s">
-        <v>15</v>
-      </c>
-      <c r="C190" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" t="s">
-        <v>15</v>
-      </c>
-      <c r="E190" t="s">
-        <v>15</v>
-      </c>
-      <c r="F190" t="s">
-        <v>623</v>
+      <c r="B191" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
